--- a/NPV (version 1).xlsb.xlsx
+++ b/NPV (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clone\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0804A3EF-3BD3-4F1A-AEFF-3021C19A3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{EBA905EB-3F81-4B75-AB84-ACE5D6B20713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12585" firstSheet="1" activeTab="1" xr2:uid="{AAFC8B8D-9972-4026-BCCA-D1A9B23ED0F4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" firstSheet="1" activeTab="5" xr2:uid="{AAFC8B8D-9972-4026-BCCA-D1A9B23ED0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Capex</t>
   </si>
@@ -224,13 +224,52 @@
   </si>
   <si>
     <t>50 RAM</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">1201.43728 1931.20592 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1186.40019 1751.54666</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1215.02596 2030.16896 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198.09743 1604.42819 </t>
+  </si>
+  <si>
+    <t>manure added 45</t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>Kveld</t>
+  </si>
+  <si>
+    <t>35 FlexEEG,upgrading,4cap, RAM</t>
+  </si>
+  <si>
+    <t>Morgen</t>
+  </si>
+  <si>
+    <t>1043.53504 1149.26841</t>
+  </si>
+  <si>
+    <t>35 2 alt, 3 cap, ghg remove, ram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -239,6 +278,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;£&quot;#,##0.000000;[Red]\-&quot;£&quot;#,##0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -285,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -306,6 +346,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1307,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3E1989-E8FD-43AC-A79F-224D08CF178B}">
-  <dimension ref="A2:O31"/>
+  <dimension ref="A2:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,6 +1695,9 @@
       <c r="F27" t="s">
         <v>36</v>
       </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
@@ -1716,6 +1762,117 @@
       </c>
       <c r="D31" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>35</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>75</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0.318</v>
+      </c>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44" s="19">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3158,10 +3315,918 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DE0CB5-3F08-4511-AF60-2EA48BE69EE9}">
+  <dimension ref="A1:AA42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D2">
+        <f>F20*190*0.9/1000000+20*F20/1000000</f>
+        <v>54.860739000000002</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2*(8000/8760)*0.4*9.97*0.64/1000</f>
+        <v>1165.4429223744291</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <f>-B2*150.12*B2^(-0.311)</f>
+        <v>-1267736.1912872565</v>
+      </c>
+      <c r="E4" s="8">
+        <f>(E2*0.1*210*0.9+E2*0.9*60+20*E2)/1000000</f>
+        <v>0.10826964748858446</v>
+      </c>
+      <c r="F4">
+        <v>1.17</v>
+      </c>
+      <c r="G4">
+        <v>6.4874999999999998</v>
+      </c>
+      <c r="H4">
+        <f>(20*E2)/1000000</f>
+        <v>2.3308858447488583E-2</v>
+      </c>
+      <c r="I4">
+        <f>(E2*0.9*60)/1000000</f>
+        <v>6.2933917808219178E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <f>(F22*0.1*210*0.9106)/1000000</f>
+        <v>2.2458843531599996E-2</v>
+      </c>
+      <c r="K4">
+        <f>1.174</f>
+        <v>1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>210*E2+E2*200</f>
+        <v>477831.59817351599</v>
+      </c>
+      <c r="E5" s="13">
+        <f>100*(B2*0.589*0.4*9.97)/8000/1000000</f>
+        <v>1.4680825000000002E-2</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <f>205*0.8888*$E$2+20*$E$2</f>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:AA8" si="0">205*0.8888*$E$2+20*$E$2</f>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="S8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="0"/>
+        <v>235657.22067579906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f>-2.1209*$B$2^(0.8359)</f>
+        <v>-123108.83420672998</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:AA9" si="1">-2.1209*$B$2^(0.8359)*0.8</f>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="1"/>
+        <v>-98487.067365383991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-35000</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3">
+        <f>45*$E$2*0</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:AA11" si="2">45*$E$2*0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <f>IRR(B14:AA14)</f>
+        <v>6.1231112019481504E-2</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B4*1</f>
+        <v>-1267736.1912872565</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C8:C13)</f>
+        <v>77548.386469069083</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:AA14" si="3">SUM(D8:D13)</f>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="3"/>
+        <v>102170.15331041507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <f>NPV(0.042,C14:AA14)+B14</f>
+        <v>271532.5189612105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>75000000/100</f>
+        <v>750000</v>
+      </c>
+      <c r="G17">
+        <f>0.1556+0.214395</f>
+        <v>0.36999499999999996</v>
+      </c>
+      <c r="K17">
+        <v>0.74642283024207101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <f>B16/1000000</f>
+        <v>0.2715325189612105</v>
+      </c>
+      <c r="D18">
+        <f>D17/30</f>
+        <v>25000</v>
+      </c>
+      <c r="K18">
+        <f>K17*287000</f>
+        <v>214223.35227947438</v>
+      </c>
+      <c r="N18" s="2">
+        <f>B2*(8000/8760)*0.4*9.97*0.589/1000</f>
+        <v>1072.571689497717</v>
+      </c>
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>4.22</v>
+      </c>
+      <c r="N19">
+        <f>N18*2</f>
+        <v>2145.143378995434</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <f>B18*32</f>
+        <v>8.689040606758736</v>
+      </c>
+      <c r="F20">
+        <f>287229</f>
+        <v>287229</v>
+      </c>
+      <c r="H20">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>177.52557523289957</v>
+      </c>
+      <c r="H21">
+        <v>8.91</v>
+      </c>
+      <c r="N21">
+        <f>190*0.91*N18+20*N18</f>
+        <v>206899.07890410963</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="E22" s="9">
+        <f>E5</f>
+        <v>1.4680825000000002E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <f>B2*0.4*0.589*9.97/1000</f>
+        <v>1174.4659999999999</v>
+      </c>
+      <c r="H22">
+        <v>8.06</v>
+      </c>
+      <c r="K22">
+        <f>0.713*265000</f>
+        <v>188945</v>
+      </c>
+      <c r="N22">
+        <f>190*0.91*N19+20*N19</f>
+        <v>413798.15780821926</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>F23/1000000</f>
+        <v>0.248028427744</v>
+      </c>
+      <c r="F23">
+        <f>F22*210*0.9104+F22*20</f>
+        <v>248028.42774399999</v>
+      </c>
+      <c r="H23">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>E22*10+E23</f>
+        <v>0.394836677744</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(H19:H23)</f>
+        <v>6.6940000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>190*0.8888*$E$2+20*$E$2</f>
+        <v>220119.53563470318</v>
+      </c>
+      <c r="C25">
+        <f>30*E2</f>
+        <v>34963.287671232873</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>SUM(B25:C25)</f>
+        <v>255082.82330593606</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>C29*0.99</f>
+        <v>0.99</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:AA29" si="4">D29*0.99</f>
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0.97029899999999991</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.96059600999999994</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0.95099004989999991</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0.94148014940099989</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.93206534790698992</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.92274469442791995</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0.91351724748364072</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0.9043820750088043</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0.89533825425871627</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0.88638487171612912</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>0.87752102299896784</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>0.86874581276897811</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>0.86005835464128833</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>0.85145777109487542</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>0.84294319338392665</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0.83451376145008738</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="4"/>
+        <v>0.82616862383558654</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="4"/>
+        <v>0.81790693759723065</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>0.80972786822125831</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="4"/>
+        <v>0.80163058953904576</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="4"/>
+        <v>0.79361428364365527</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>0.78567814080721876</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>AVERAGE(C29:AA29)</f>
+        <v>0.88871456240341251</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>0.24839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F023DD19-2AED-43A9-945E-37859E7C536F}">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,15 +4249,11 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <v>500000</v>
-      </c>
-      <c r="D2">
-        <f>F20*190*0.9/1000000+20*F20/1000000</f>
-        <v>54.860739000000002</v>
+        <v>40000000</v>
       </c>
       <c r="E2" s="2">
         <f>B2*(8000/8760)*0.4*9.97*0.589/1000</f>
-        <v>1072.571689497717</v>
+        <v>85805.73515981737</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -3207,11 +4268,11 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>-B2*150.12*B2^(-0.311)</f>
-        <v>-1267736.1912872565</v>
+        <v>-25957202.773503952</v>
       </c>
       <c r="E4" s="8">
         <f>(E2*0.1*210*0.9+E2*0.9*60+20*E2)/1000000</f>
-        <v>9.9641909954337929E-2</v>
+        <v>7.9713527963470332</v>
       </c>
       <c r="F4">
         <v>1.17</v>
@@ -3221,15 +4282,15 @@
       </c>
       <c r="H4">
         <f>(20*E2)/1000000</f>
-        <v>2.145143378995434E-2</v>
+        <v>1.7161147031963475</v>
       </c>
       <c r="I4">
         <f>(E2*0.9*60)/1000000</f>
-        <v>5.7918871232876722E-2</v>
+        <v>4.633509698630137</v>
       </c>
       <c r="J4" s="12">
         <f>(F22*0.1*210*0.9106)/1000000</f>
-        <v>2.2458843531599996E-2</v>
+        <v>1.7967074825280001</v>
       </c>
       <c r="K4">
         <f>1.174</f>
@@ -3237,13 +4298,9 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <f>210*E2+E2*200</f>
-        <v>439754.39269406395</v>
-      </c>
       <c r="E5" s="13">
         <f>100*(B2*0.589*0.4*9.97)/8000/1000000</f>
-        <v>1.4680825000000002E-2</v>
+        <v>1.174466</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -3255,104 +4312,104 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <f>210*0.9*$E$2+20*$E$2</f>
-        <v>224167.48310502287</v>
+        <f>60*$E$2+20*$E$2</f>
+        <v>6864458.8127853898</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:AA8" si="0">210*0.9*$E$2+20*$E$2</f>
-        <v>224167.48310502287</v>
+        <f t="shared" ref="D8:AA8" si="0">60*$E$2+20*$E$2</f>
+        <v>6864458.8127853898</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="Z8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="0"/>
-        <v>224167.48310502287</v>
+        <v>6864458.8127853898</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -3361,103 +4418,103 @@
       </c>
       <c r="C9" s="4">
         <f>-2.1209*$B$2^(0.8359)</f>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ref="D9:AA9" si="1">-2.1209*$B$2^(0.8359)</f>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="T9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="V9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="1"/>
-        <v>-123108.83420672998</v>
+        <v>-4798241.9002115969</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -3465,79 +4522,79 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="D10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="E10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="F10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="G10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="H10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="I10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="J10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="K10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="L10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="M10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="O10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="Q10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="R10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="S10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="T10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="U10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="V10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="W10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="X10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="Y10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="Z10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
       <c r="AA10" s="1">
-        <v>-10000</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -3578,117 +4635,117 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>IRR(B14:AA14)</f>
-        <v>5.1227331849744484E-2</v>
+        <v>3.448962010603962E-2</v>
       </c>
       <c r="B14" s="3">
         <f>B6+B4</f>
-        <v>-1267736.1912872565</v>
+        <v>-25957202.773503952</v>
       </c>
       <c r="C14">
         <f>SUM(C8:C13)</f>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:AA14" si="2">SUM(D8:D13)</f>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>91058.648898292886</v>
+        <v>1566216.912573793</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>NPV(0.042,C14:AA14)+B14</f>
-        <v>125189.03917355789</v>
+        <v>-1998764.1156317033</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -3707,19 +4764,23 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>B16/1000000</f>
-        <v>0.12518903917355789</v>
+        <v>-1.9987641156317033</v>
       </c>
       <c r="D18">
         <f>D17/30</f>
         <v>25000</v>
       </c>
+      <c r="J18">
+        <f>45000/365</f>
+        <v>123.28767123287672</v>
+      </c>
       <c r="K18">
         <f>K17*287000</f>
         <v>214223.35227947438</v>
       </c>
       <c r="N18" s="2">
-        <f>B2*(8000/8760)*0.4*9.97*0.589/1000</f>
-        <v>1072.571689497717</v>
+        <f>B2/2*(8000/8760)*0.4*9.97*0.589/1000</f>
+        <v>42902.867579908685</v>
       </c>
       <c r="O18" t="s">
         <v>10</v>
@@ -3734,7 +4795,7 @@
       </c>
       <c r="N19">
         <f>N18*2</f>
-        <v>2145.143378995434</v>
+        <v>85805.73515981737</v>
       </c>
       <c r="O19" t="s">
         <v>10</v>
@@ -3743,661 +4804,7 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <f>B18*5</f>
-        <v>0.62594519586778952</v>
-      </c>
-      <c r="F20">
-        <f>287229</f>
-        <v>287229</v>
-      </c>
-      <c r="H20">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>177.52557523289957</v>
-      </c>
-      <c r="H21">
-        <v>8.91</v>
-      </c>
-      <c r="N21">
-        <f>190*0.91*N18+20*N18</f>
-        <v>206899.07890410963</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="9">
-        <f>E5</f>
-        <v>1.4680825000000002E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <f>B2*0.4*0.589*9.97/1000</f>
-        <v>1174.4659999999999</v>
-      </c>
-      <c r="H22">
-        <v>8.06</v>
-      </c>
-      <c r="K22">
-        <f>0.713*265000</f>
-        <v>188945</v>
-      </c>
-      <c r="N22">
-        <f>190*0.91*N19+20*N19</f>
-        <v>413798.15780821926</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <f>F23/1000000</f>
-        <v>0.248028427744</v>
-      </c>
-      <c r="F23">
-        <f>F22*210*0.9104+F22*20</f>
-        <v>248028.42774399999</v>
-      </c>
-      <c r="H23">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <f>E22*10+E23</f>
-        <v>0.394836677744</v>
-      </c>
-      <c r="H24">
-        <f>AVERAGE(H19:H23)</f>
-        <v>6.6940000000000008</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F023DD19-2AED-43A9-945E-37859E7C536F}">
-  <dimension ref="A1:AA24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>40000000</v>
-      </c>
-      <c r="E2" s="2">
-        <f>B2*(8000/8760)*0.4*9.97*0.589/1000</f>
-        <v>85805.73515981737</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <f>-B2*150.12*B2^(-0.311)</f>
-        <v>-25957202.773503952</v>
-      </c>
-      <c r="E4" s="8">
-        <f>(E2*0.1*210*0.9+E2*0.9*60+20*E2)/1000000</f>
-        <v>7.9713527963470332</v>
-      </c>
-      <c r="F4">
-        <v>1.17</v>
-      </c>
-      <c r="G4">
-        <v>6.4874999999999998</v>
-      </c>
-      <c r="H4">
-        <f>(20*E2)/1000000</f>
-        <v>1.7161147031963475</v>
-      </c>
-      <c r="I4">
-        <f>(E2*0.9*60)/1000000</f>
-        <v>4.633509698630137</v>
-      </c>
-      <c r="J4" s="12">
-        <f>(F22*0.1*210*0.9106)/1000000</f>
-        <v>1.7967074825280001</v>
-      </c>
-      <c r="K4">
-        <f>1.174</f>
-        <v>1.1739999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E5" s="13">
-        <f>100*(B2*0.589*0.4*9.97)/8000/1000000</f>
-        <v>1.174466</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <f>100*$E$2+20*$E$2</f>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:AA8" si="0">100*$E$2+20*$E$2</f>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="W8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="X8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="Y8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-      <c r="AA8" s="1">
-        <f t="shared" si="0"/>
-        <v>10296688.219178084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <f>-2.1209*$B$2^(0.8359)</f>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" ref="D9:AA9" si="1">-2.1209*$B$2^(0.8359)</f>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="W9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="X9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="Z9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-      <c r="AA9" s="4">
-        <f t="shared" si="1"/>
-        <v>-4798241.9002115969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="N10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="R10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="S10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="T10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="U10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="V10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="W10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="X10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>-4130000</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>-4130000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f>IRR(B14:AA14)</f>
-        <v>2.2472736444702157E-2</v>
-      </c>
-      <c r="B14" s="3">
-        <f>B6+B4</f>
-        <v>-25957202.773503952</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C8:C13)</f>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:AA14" si="2">SUM(D8:D13)</f>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>1368446.3189664874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <f>NPV(0.042,C14:AA14)+B14</f>
-        <v>-5024063.2279271521</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <f>75000000/100</f>
-        <v>750000</v>
-      </c>
-      <c r="G17">
-        <f>0.1556+0.214395</f>
-        <v>0.36999499999999996</v>
-      </c>
-      <c r="K17">
-        <v>0.74642283024207101</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <f>B16/1000000</f>
-        <v>-5.0240632279271518</v>
-      </c>
-      <c r="D18">
-        <f>D17/30</f>
-        <v>25000</v>
-      </c>
-      <c r="J18">
-        <f>45000/365</f>
-        <v>123.28767123287672</v>
-      </c>
-      <c r="K18">
-        <f>K17*287000</f>
-        <v>214223.35227947438</v>
-      </c>
-      <c r="N18" s="2">
-        <f>B2/2*(8000/8760)*0.4*9.97*0.589/1000</f>
-        <v>42902.867579908685</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>4.22</v>
-      </c>
-      <c r="N19">
-        <f>N18*2</f>
-        <v>85805.73515981737</v>
-      </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
-        <f>B18*5</f>
-        <v>-25.120316139635758</v>
+        <v>-9.9938205781585161</v>
       </c>
       <c r="F20">
         <f>287229</f>
